--- a/plantillas/area.xlsx
+++ b/plantillas/area.xlsx
@@ -173,11 +173,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -542,154 +542,154 @@
       <c r="C9" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>1</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>2</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>4</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>5</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>6</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>7</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>8</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>9</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>10</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>11</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>12</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>13</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>14</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>15</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>16</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>17</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>18</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>19</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>20</v>
       </c>
       <c r="B32" s="5"/>

--- a/plantillas/area.xlsx
+++ b/plantillas/area.xlsx
@@ -166,7 +166,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -178,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -499,205 +501,207 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>3</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>7</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>8</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>9</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>10</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>11</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>13</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>14</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>15</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>16</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>17</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>18</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>19</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>20</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
